--- a/Spring2023_program/round_1_participants.xlsx
+++ b/Spring2023_program/round_1_participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saunders/Documents/BU_grad_trios/Spring2023_program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6167CC24-6AEF-1D42-B2FF-87DA431943D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F184EAA-6593-FB45-BE0F-B89EACAFB830}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13960" yWindow="6440" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="round_1_participants" sheetId="1" r:id="rId1"/>
@@ -1069,9 +1069,6 @@
     <t>msusoeff@bu.edu</t>
   </si>
   <si>
-    <t>Dilara ‚àö√°aygara</t>
-  </si>
-  <si>
     <t>Dilara</t>
   </si>
   <si>
@@ -3071,6 +3068,9 @@
   </si>
   <si>
     <t>harshk@bu.edu</t>
+  </si>
+  <si>
+    <t>Dilara Caygara</t>
   </si>
 </sst>
 </file>
@@ -3914,8 +3914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="E209" sqref="E209"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6597,16 +6597,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C104" t="s">
         <v>349</v>
-      </c>
-      <c r="C104" t="s">
-        <v>350</v>
       </c>
       <c r="D104">
         <v>57631594</v>
       </c>
       <c r="E104" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -6623,16 +6623,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
+        <v>351</v>
+      </c>
+      <c r="C105" t="s">
         <v>352</v>
-      </c>
-      <c r="C105" t="s">
-        <v>353</v>
       </c>
       <c r="D105">
         <v>67421497</v>
       </c>
       <c r="E105" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
@@ -6649,16 +6649,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
+        <v>354</v>
+      </c>
+      <c r="C106" t="s">
         <v>355</v>
-      </c>
-      <c r="C106" t="s">
-        <v>356</v>
       </c>
       <c r="D106">
         <v>34943665</v>
       </c>
       <c r="E106" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F106" t="s">
         <v>110</v>
@@ -6675,16 +6675,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
+        <v>357</v>
+      </c>
+      <c r="C107" t="s">
         <v>358</v>
-      </c>
-      <c r="C107" t="s">
-        <v>359</v>
       </c>
       <c r="D107">
         <v>76193905</v>
       </c>
       <c r="E107" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F107" t="s">
         <v>22</v>
@@ -6701,22 +6701,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
+        <v>360</v>
+      </c>
+      <c r="C108" t="s">
         <v>361</v>
-      </c>
-      <c r="C108" t="s">
-        <v>362</v>
       </c>
       <c r="D108">
         <v>98180004</v>
       </c>
       <c r="E108" t="s">
+        <v>362</v>
+      </c>
+      <c r="F108" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
         <v>363</v>
-      </c>
-      <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s">
-        <v>364</v>
       </c>
       <c r="H108" t="s">
         <v>12</v>
@@ -6727,22 +6727,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
+        <v>364</v>
+      </c>
+      <c r="C109" t="s">
         <v>365</v>
-      </c>
-      <c r="C109" t="s">
-        <v>366</v>
       </c>
       <c r="D109">
         <v>6301019</v>
       </c>
       <c r="E109" t="s">
+        <v>366</v>
+      </c>
+      <c r="F109" t="s">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
         <v>367</v>
-      </c>
-      <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s">
-        <v>368</v>
       </c>
       <c r="H109" t="s">
         <v>12</v>
@@ -6753,16 +6753,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
+        <v>368</v>
+      </c>
+      <c r="C110" t="s">
         <v>369</v>
-      </c>
-      <c r="C110" t="s">
-        <v>370</v>
       </c>
       <c r="D110">
         <v>70315897</v>
       </c>
       <c r="E110" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
@@ -6779,16 +6779,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
+        <v>371</v>
+      </c>
+      <c r="C111" t="s">
         <v>372</v>
-      </c>
-      <c r="C111" t="s">
-        <v>373</v>
       </c>
       <c r="D111">
         <v>68590291</v>
       </c>
       <c r="E111" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
@@ -6805,7 +6805,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C112" t="s">
         <v>192</v>
@@ -6814,7 +6814,7 @@
         <v>91586290</v>
       </c>
       <c r="E112" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F112" t="s">
         <v>117</v>
@@ -6831,16 +6831,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
+        <v>376</v>
+      </c>
+      <c r="C113" t="s">
         <v>377</v>
-      </c>
-      <c r="C113" t="s">
-        <v>378</v>
       </c>
       <c r="D113">
         <v>46864967</v>
       </c>
       <c r="E113" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F113" t="s">
         <v>92</v>
@@ -6857,7 +6857,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C114" t="s">
         <v>200</v>
@@ -6866,7 +6866,7 @@
         <v>5599921</v>
       </c>
       <c r="E114" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F114" t="s">
         <v>92</v>
@@ -6883,16 +6883,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
+        <v>381</v>
+      </c>
+      <c r="C115" t="s">
         <v>382</v>
-      </c>
-      <c r="C115" t="s">
-        <v>383</v>
       </c>
       <c r="D115">
         <v>85801279</v>
       </c>
       <c r="E115" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F115" t="s">
         <v>11</v>
@@ -6909,13 +6909,13 @@
         <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D116">
         <v>70997378</v>
       </c>
       <c r="E116" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F116" t="s">
         <v>22</v>
@@ -6932,16 +6932,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
+        <v>386</v>
+      </c>
+      <c r="C117" t="s">
         <v>387</v>
-      </c>
-      <c r="C117" t="s">
-        <v>388</v>
       </c>
       <c r="D117">
         <v>13663632</v>
       </c>
       <c r="E117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F117" t="s">
         <v>16</v>
@@ -6958,7 +6958,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C118" t="s">
         <v>340</v>
@@ -6967,7 +6967,7 @@
         <v>75081973</v>
       </c>
       <c r="E118" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F118" t="s">
         <v>22</v>
@@ -6984,13 +6984,13 @@
         <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D119">
         <v>86685449</v>
       </c>
       <c r="E119" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F119" t="s">
         <v>16</v>
@@ -7007,16 +7007,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
+        <v>393</v>
+      </c>
+      <c r="C120" t="s">
         <v>394</v>
-      </c>
-      <c r="C120" t="s">
-        <v>395</v>
       </c>
       <c r="D120">
         <v>82217163</v>
       </c>
       <c r="E120" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F120" t="s">
         <v>22</v>
@@ -7033,16 +7033,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
+        <v>396</v>
+      </c>
+      <c r="C121" t="s">
         <v>397</v>
-      </c>
-      <c r="C121" t="s">
-        <v>398</v>
       </c>
       <c r="D121">
         <v>12254727</v>
       </c>
       <c r="E121" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F121" t="s">
         <v>11</v>
@@ -7059,16 +7059,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
+        <v>399</v>
+      </c>
+      <c r="C122" t="s">
         <v>400</v>
-      </c>
-      <c r="C122" t="s">
-        <v>401</v>
       </c>
       <c r="D122">
         <v>10769179</v>
       </c>
       <c r="E122" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -7085,16 +7085,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
+        <v>402</v>
+      </c>
+      <c r="C123" t="s">
         <v>403</v>
-      </c>
-      <c r="C123" t="s">
-        <v>404</v>
       </c>
       <c r="D123">
         <v>94447714</v>
       </c>
       <c r="E123" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F123" t="s">
         <v>11</v>
@@ -7111,16 +7111,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
+        <v>405</v>
+      </c>
+      <c r="C124" t="s">
         <v>406</v>
-      </c>
-      <c r="C124" t="s">
-        <v>407</v>
       </c>
       <c r="D124">
         <v>57122355</v>
       </c>
       <c r="E124" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F124" t="s">
         <v>11</v>
@@ -7137,16 +7137,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
+        <v>408</v>
+      </c>
+      <c r="C125" t="s">
         <v>409</v>
-      </c>
-      <c r="C125" t="s">
-        <v>410</v>
       </c>
       <c r="D125">
         <v>90332175</v>
       </c>
       <c r="E125" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F125" t="s">
         <v>22</v>
@@ -7163,16 +7163,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
+        <v>411</v>
+      </c>
+      <c r="C126" t="s">
         <v>412</v>
-      </c>
-      <c r="C126" t="s">
-        <v>413</v>
       </c>
       <c r="D126">
         <v>2945217</v>
       </c>
       <c r="E126" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F126" t="s">
         <v>22</v>
@@ -7189,16 +7189,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
+        <v>414</v>
+      </c>
+      <c r="C127" t="s">
         <v>415</v>
-      </c>
-      <c r="C127" t="s">
-        <v>416</v>
       </c>
       <c r="D127">
         <v>85326097</v>
       </c>
       <c r="E127" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F127" t="s">
         <v>43</v>
@@ -7215,16 +7215,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
+        <v>417</v>
+      </c>
+      <c r="C128" t="s">
         <v>418</v>
-      </c>
-      <c r="C128" t="s">
-        <v>419</v>
       </c>
       <c r="D128">
         <v>1358968</v>
       </c>
       <c r="E128" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F128" t="s">
         <v>22</v>
@@ -7241,16 +7241,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
+        <v>420</v>
+      </c>
+      <c r="C129" t="s">
         <v>421</v>
-      </c>
-      <c r="C129" t="s">
-        <v>422</v>
       </c>
       <c r="D129">
         <v>81275467</v>
       </c>
       <c r="E129" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F129" t="s">
         <v>16</v>
@@ -7267,16 +7267,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
+        <v>423</v>
+      </c>
+      <c r="C130" t="s">
         <v>424</v>
-      </c>
-      <c r="C130" t="s">
-        <v>425</v>
       </c>
       <c r="D130">
         <v>88889450</v>
       </c>
       <c r="E130" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F130" t="s">
         <v>110</v>
@@ -7293,16 +7293,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
+        <v>426</v>
+      </c>
+      <c r="C131" t="s">
         <v>427</v>
-      </c>
-      <c r="C131" t="s">
-        <v>428</v>
       </c>
       <c r="D131">
         <v>3479511</v>
       </c>
       <c r="E131" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F131" t="s">
         <v>22</v>
@@ -7319,16 +7319,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
+        <v>429</v>
+      </c>
+      <c r="C132" t="s">
         <v>430</v>
-      </c>
-      <c r="C132" t="s">
-        <v>431</v>
       </c>
       <c r="D132">
         <v>75475561</v>
       </c>
       <c r="E132" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F132" t="s">
         <v>16</v>
@@ -7345,16 +7345,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
+        <v>432</v>
+      </c>
+      <c r="C133" t="s">
         <v>433</v>
-      </c>
-      <c r="C133" t="s">
-        <v>434</v>
       </c>
       <c r="D133">
         <v>36142987</v>
       </c>
       <c r="E133" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F133" t="s">
         <v>43</v>
@@ -7371,22 +7371,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
+        <v>435</v>
+      </c>
+      <c r="C134" t="s">
         <v>436</v>
-      </c>
-      <c r="C134" t="s">
-        <v>437</v>
       </c>
       <c r="D134">
         <v>26311098</v>
       </c>
       <c r="E134" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F134" t="s">
         <v>22</v>
       </c>
       <c r="G134" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H134" t="s">
         <v>18</v>
@@ -7397,7 +7397,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C135" t="s">
         <v>233</v>
@@ -7406,7 +7406,7 @@
         <v>88960928</v>
       </c>
       <c r="E135" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F135" t="s">
         <v>43</v>
@@ -7423,16 +7423,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
+        <v>441</v>
+      </c>
+      <c r="C136" t="s">
         <v>442</v>
-      </c>
-      <c r="C136" t="s">
-        <v>443</v>
       </c>
       <c r="D136">
         <v>1123904</v>
       </c>
       <c r="E136" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -7449,16 +7449,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
+        <v>444</v>
+      </c>
+      <c r="C137" t="s">
         <v>445</v>
-      </c>
-      <c r="C137" t="s">
-        <v>446</v>
       </c>
       <c r="D137">
         <v>17138082</v>
       </c>
       <c r="E137" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F137" t="s">
         <v>43</v>
@@ -7475,16 +7475,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
+        <v>447</v>
+      </c>
+      <c r="C138" t="s">
         <v>448</v>
-      </c>
-      <c r="C138" t="s">
-        <v>449</v>
       </c>
       <c r="D138">
         <v>54429772</v>
       </c>
       <c r="E138" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F138" t="s">
         <v>16</v>
@@ -7501,16 +7501,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
+        <v>450</v>
+      </c>
+      <c r="C139" t="s">
         <v>451</v>
-      </c>
-      <c r="C139" t="s">
-        <v>452</v>
       </c>
       <c r="D139">
         <v>11940285</v>
       </c>
       <c r="E139" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F139" t="s">
         <v>16</v>
@@ -7527,16 +7527,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
+        <v>453</v>
+      </c>
+      <c r="C140" t="s">
         <v>454</v>
-      </c>
-      <c r="C140" t="s">
-        <v>455</v>
       </c>
       <c r="D140">
         <v>71934169</v>
       </c>
       <c r="E140" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F140" t="s">
         <v>22</v>
@@ -7553,16 +7553,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
+        <v>456</v>
+      </c>
+      <c r="C141" t="s">
         <v>457</v>
-      </c>
-      <c r="C141" t="s">
-        <v>458</v>
       </c>
       <c r="D141">
         <v>71168520</v>
       </c>
       <c r="E141" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F141" t="s">
         <v>43</v>
@@ -7579,7 +7579,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C142" t="s">
         <v>164</v>
@@ -7588,7 +7588,7 @@
         <v>71725396</v>
       </c>
       <c r="E142" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F142" t="s">
         <v>16</v>
@@ -7605,16 +7605,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
+        <v>461</v>
+      </c>
+      <c r="C143" t="s">
         <v>462</v>
-      </c>
-      <c r="C143" t="s">
-        <v>463</v>
       </c>
       <c r="D143">
         <v>41641725</v>
       </c>
       <c r="E143" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F143" t="s">
         <v>312</v>
@@ -7631,16 +7631,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
+        <v>464</v>
+      </c>
+      <c r="C144" t="s">
         <v>465</v>
-      </c>
-      <c r="C144" t="s">
-        <v>466</v>
       </c>
       <c r="D144">
         <v>6390534</v>
       </c>
       <c r="E144" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F144" t="s">
         <v>11</v>
@@ -7657,13 +7657,13 @@
         <v>143</v>
       </c>
       <c r="C145" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D145">
         <v>48894665</v>
       </c>
       <c r="E145" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F145" t="s">
         <v>22</v>
@@ -7680,22 +7680,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
+        <v>469</v>
+      </c>
+      <c r="C146" t="s">
         <v>470</v>
-      </c>
-      <c r="C146" t="s">
-        <v>471</v>
       </c>
       <c r="D146">
         <v>30834796</v>
       </c>
       <c r="E146" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F146" t="s">
         <v>16</v>
       </c>
       <c r="G146" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H146" t="s">
         <v>12</v>
@@ -7706,22 +7706,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
+        <v>472</v>
+      </c>
+      <c r="C147" t="s">
         <v>473</v>
-      </c>
-      <c r="C147" t="s">
-        <v>474</v>
       </c>
       <c r="D147">
         <v>9759505</v>
       </c>
       <c r="E147" t="s">
+        <v>474</v>
+      </c>
+      <c r="F147" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" t="s">
         <v>475</v>
-      </c>
-      <c r="F147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" t="s">
-        <v>476</v>
       </c>
       <c r="H147" t="s">
         <v>12</v>
@@ -7732,16 +7732,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
+        <v>476</v>
+      </c>
+      <c r="C148" t="s">
         <v>477</v>
-      </c>
-      <c r="C148" t="s">
-        <v>478</v>
       </c>
       <c r="D148">
         <v>88616137</v>
       </c>
       <c r="E148" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F148" t="s">
         <v>43</v>
@@ -7758,16 +7758,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C149" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D149">
         <v>37555401</v>
       </c>
       <c r="E149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F149" t="s">
         <v>22</v>
@@ -7784,16 +7784,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
+        <v>481</v>
+      </c>
+      <c r="C150" t="s">
         <v>482</v>
-      </c>
-      <c r="C150" t="s">
-        <v>483</v>
       </c>
       <c r="D150">
         <v>78047914</v>
       </c>
       <c r="E150" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F150" t="s">
         <v>43</v>
@@ -7810,16 +7810,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
+        <v>484</v>
+      </c>
+      <c r="C151" t="s">
         <v>485</v>
-      </c>
-      <c r="C151" t="s">
-        <v>486</v>
       </c>
       <c r="D151">
         <v>7856293</v>
       </c>
       <c r="E151" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F151" t="s">
         <v>16</v>
@@ -7836,16 +7836,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
+        <v>487</v>
+      </c>
+      <c r="C152" t="s">
         <v>488</v>
-      </c>
-      <c r="C152" t="s">
-        <v>489</v>
       </c>
       <c r="D152">
         <v>10449426</v>
       </c>
       <c r="E152" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F152" t="s">
         <v>16</v>
@@ -7862,16 +7862,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
+        <v>490</v>
+      </c>
+      <c r="C153" t="s">
         <v>491</v>
-      </c>
-      <c r="C153" t="s">
-        <v>492</v>
       </c>
       <c r="D153">
         <v>45461974</v>
       </c>
       <c r="E153" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F153" t="s">
         <v>43</v>
@@ -7888,16 +7888,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
+        <v>493</v>
+      </c>
+      <c r="C154" t="s">
         <v>494</v>
-      </c>
-      <c r="C154" t="s">
-        <v>495</v>
       </c>
       <c r="D154">
         <v>63852394</v>
       </c>
       <c r="E154" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F154" t="s">
         <v>43</v>
@@ -7914,16 +7914,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
+        <v>496</v>
+      </c>
+      <c r="C155" t="s">
         <v>497</v>
-      </c>
-      <c r="C155" t="s">
-        <v>498</v>
       </c>
       <c r="D155">
         <v>60227166</v>
       </c>
       <c r="E155" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F155" t="s">
         <v>16</v>
@@ -7940,7 +7940,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C156" t="s">
         <v>310</v>
@@ -7949,7 +7949,7 @@
         <v>92608474</v>
       </c>
       <c r="E156" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F156" t="s">
         <v>43</v>
@@ -7966,16 +7966,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
+        <v>501</v>
+      </c>
+      <c r="C157" t="s">
         <v>502</v>
-      </c>
-      <c r="C157" t="s">
-        <v>503</v>
       </c>
       <c r="D157">
         <v>76240353</v>
       </c>
       <c r="E157" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F157" t="s">
         <v>11</v>
@@ -7992,16 +7992,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
+        <v>504</v>
+      </c>
+      <c r="C158" t="s">
         <v>505</v>
-      </c>
-      <c r="C158" t="s">
-        <v>506</v>
       </c>
       <c r="D158">
         <v>77711458</v>
       </c>
       <c r="E158" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F158" t="s">
         <v>136</v>
@@ -8018,22 +8018,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C159" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D159">
         <v>13853217</v>
       </c>
       <c r="E159" t="s">
+        <v>508</v>
+      </c>
+      <c r="F159" t="s">
+        <v>16</v>
+      </c>
+      <c r="G159" t="s">
         <v>509</v>
-      </c>
-      <c r="F159" t="s">
-        <v>16</v>
-      </c>
-      <c r="G159" t="s">
-        <v>510</v>
       </c>
       <c r="H159" t="s">
         <v>12</v>
@@ -8044,16 +8044,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
+        <v>510</v>
+      </c>
+      <c r="C160" t="s">
         <v>511</v>
-      </c>
-      <c r="C160" t="s">
-        <v>512</v>
       </c>
       <c r="D160">
         <v>68134558</v>
       </c>
       <c r="E160" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F160" t="s">
         <v>43</v>
@@ -8070,16 +8070,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
+        <v>513</v>
+      </c>
+      <c r="C161" t="s">
         <v>514</v>
-      </c>
-      <c r="C161" t="s">
-        <v>515</v>
       </c>
       <c r="D161">
         <v>8463982</v>
       </c>
       <c r="E161" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F161" t="s">
         <v>43</v>
@@ -8096,16 +8096,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
+        <v>516</v>
+      </c>
+      <c r="C162" t="s">
         <v>517</v>
-      </c>
-      <c r="C162" t="s">
-        <v>518</v>
       </c>
       <c r="D162">
         <v>87274255</v>
       </c>
       <c r="E162" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F162" t="s">
         <v>16</v>
@@ -8122,16 +8122,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
+        <v>519</v>
+      </c>
+      <c r="C163" t="s">
         <v>520</v>
-      </c>
-      <c r="C163" t="s">
-        <v>521</v>
       </c>
       <c r="D163">
         <v>623024845</v>
       </c>
       <c r="E163" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F163" t="s">
         <v>16</v>
@@ -8148,22 +8148,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
+        <v>522</v>
+      </c>
+      <c r="C164" t="s">
         <v>523</v>
-      </c>
-      <c r="C164" t="s">
-        <v>524</v>
       </c>
       <c r="D164">
         <v>92180154</v>
       </c>
       <c r="E164" t="s">
+        <v>524</v>
+      </c>
+      <c r="F164" t="s">
+        <v>16</v>
+      </c>
+      <c r="G164" t="s">
         <v>525</v>
-      </c>
-      <c r="F164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G164" t="s">
-        <v>526</v>
       </c>
       <c r="H164" t="s">
         <v>12</v>
@@ -8174,16 +8174,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
+        <v>526</v>
+      </c>
+      <c r="C165" t="s">
         <v>527</v>
-      </c>
-      <c r="C165" t="s">
-        <v>528</v>
       </c>
       <c r="D165">
         <v>56374762</v>
       </c>
       <c r="E165" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F165" t="s">
         <v>16</v>
@@ -8200,16 +8200,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
+        <v>529</v>
+      </c>
+      <c r="C166" t="s">
         <v>530</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>531</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>532</v>
-      </c>
-      <c r="E166" t="s">
-        <v>533</v>
       </c>
       <c r="F166" t="s">
         <v>16</v>
@@ -8226,16 +8226,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
+        <v>533</v>
+      </c>
+      <c r="C167" t="s">
         <v>534</v>
-      </c>
-      <c r="C167" t="s">
-        <v>535</v>
       </c>
       <c r="D167">
         <v>54526080</v>
       </c>
       <c r="E167" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F167" t="s">
         <v>16</v>
@@ -8252,22 +8252,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
+        <v>536</v>
+      </c>
+      <c r="C168" t="s">
         <v>537</v>
-      </c>
-      <c r="C168" t="s">
-        <v>538</v>
       </c>
       <c r="D168">
         <v>21893656</v>
       </c>
       <c r="E168" t="s">
+        <v>538</v>
+      </c>
+      <c r="F168" t="s">
         <v>539</v>
       </c>
-      <c r="F168" t="s">
+      <c r="G168" t="s">
         <v>540</v>
-      </c>
-      <c r="G168" t="s">
-        <v>541</v>
       </c>
       <c r="H168" t="s">
         <v>12</v>
@@ -8278,16 +8278,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
+        <v>541</v>
+      </c>
+      <c r="C169" t="s">
         <v>542</v>
-      </c>
-      <c r="C169" t="s">
-        <v>543</v>
       </c>
       <c r="D169">
         <v>88955889</v>
       </c>
       <c r="E169" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F169" t="s">
         <v>16</v>
@@ -8304,16 +8304,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
+        <v>544</v>
+      </c>
+      <c r="C170" t="s">
         <v>545</v>
-      </c>
-      <c r="C170" t="s">
-        <v>546</v>
       </c>
       <c r="D170">
         <v>8519034</v>
       </c>
       <c r="E170" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F170" t="s">
         <v>312</v>
@@ -8330,16 +8330,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
+        <v>547</v>
+      </c>
+      <c r="C171" t="s">
         <v>548</v>
-      </c>
-      <c r="C171" t="s">
-        <v>549</v>
       </c>
       <c r="D171">
         <v>78484982</v>
       </c>
       <c r="E171" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F171" t="s">
         <v>312</v>
@@ -8356,16 +8356,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
+        <v>550</v>
+      </c>
+      <c r="C172" t="s">
         <v>551</v>
-      </c>
-      <c r="C172" t="s">
-        <v>552</v>
       </c>
       <c r="D172">
         <v>9801011</v>
       </c>
       <c r="E172" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F172" t="s">
         <v>131</v>
@@ -8382,16 +8382,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
+        <v>553</v>
+      </c>
+      <c r="C173" t="s">
         <v>554</v>
-      </c>
-      <c r="C173" t="s">
-        <v>555</v>
       </c>
       <c r="D173">
         <v>12652644</v>
       </c>
       <c r="E173" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F173" t="s">
         <v>43</v>
@@ -8408,16 +8408,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
+        <v>556</v>
+      </c>
+      <c r="C174" t="s">
         <v>557</v>
-      </c>
-      <c r="C174" t="s">
-        <v>558</v>
       </c>
       <c r="D174">
         <v>52157235</v>
       </c>
       <c r="E174" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F174" t="s">
         <v>16</v>
@@ -8434,16 +8434,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
+        <v>559</v>
+      </c>
+      <c r="C175" t="s">
         <v>560</v>
-      </c>
-      <c r="C175" t="s">
-        <v>561</v>
       </c>
       <c r="D175">
         <v>71581116</v>
       </c>
       <c r="E175" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F175" t="s">
         <v>16</v>
@@ -8460,16 +8460,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
+        <v>562</v>
+      </c>
+      <c r="C176" t="s">
         <v>563</v>
-      </c>
-      <c r="C176" t="s">
-        <v>564</v>
       </c>
       <c r="D176">
         <v>93542629</v>
       </c>
       <c r="E176" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F176" t="s">
         <v>16</v>
@@ -8486,16 +8486,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
+        <v>565</v>
+      </c>
+      <c r="C177" t="s">
         <v>566</v>
-      </c>
-      <c r="C177" t="s">
-        <v>567</v>
       </c>
       <c r="D177">
         <v>18185430</v>
       </c>
       <c r="E177" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F177" t="s">
         <v>43</v>
@@ -8512,16 +8512,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
+        <v>568</v>
+      </c>
+      <c r="C178" t="s">
         <v>569</v>
-      </c>
-      <c r="C178" t="s">
-        <v>570</v>
       </c>
       <c r="D178">
         <v>86289151</v>
       </c>
       <c r="E178" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F178" t="s">
         <v>22</v>
@@ -8538,16 +8538,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
+        <v>571</v>
+      </c>
+      <c r="C179" t="s">
         <v>572</v>
-      </c>
-      <c r="C179" t="s">
-        <v>573</v>
       </c>
       <c r="D179">
         <v>78329245</v>
       </c>
       <c r="E179" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F179" t="s">
         <v>16</v>
@@ -8564,16 +8564,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
+        <v>574</v>
+      </c>
+      <c r="C180" t="s">
         <v>575</v>
-      </c>
-      <c r="C180" t="s">
-        <v>576</v>
       </c>
       <c r="D180">
         <v>19890012</v>
       </c>
       <c r="E180" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F180" t="s">
         <v>43</v>
@@ -8590,16 +8590,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
+        <v>577</v>
+      </c>
+      <c r="C181" t="s">
         <v>578</v>
-      </c>
-      <c r="C181" t="s">
-        <v>579</v>
       </c>
       <c r="D181">
         <v>86905174</v>
       </c>
       <c r="E181" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F181" t="s">
         <v>22</v>
@@ -8616,16 +8616,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
+        <v>580</v>
+      </c>
+      <c r="C182" t="s">
         <v>581</v>
-      </c>
-      <c r="C182" t="s">
-        <v>582</v>
       </c>
       <c r="D182">
         <v>38532469</v>
       </c>
       <c r="E182" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F182" t="s">
         <v>16</v>
@@ -8642,16 +8642,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C183" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D183">
         <v>42144744</v>
       </c>
       <c r="E183" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F183" t="s">
         <v>16</v>
@@ -8668,7 +8668,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C184" t="s">
         <v>167</v>
@@ -8677,7 +8677,7 @@
         <v>13947709</v>
       </c>
       <c r="E184" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F184" t="s">
         <v>11</v>
@@ -8694,16 +8694,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
+        <v>587</v>
+      </c>
+      <c r="C185" t="s">
         <v>588</v>
-      </c>
-      <c r="C185" t="s">
-        <v>589</v>
       </c>
       <c r="D185">
         <v>17292405</v>
       </c>
       <c r="E185" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F185" t="s">
         <v>16</v>
@@ -8720,16 +8720,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
+        <v>590</v>
+      </c>
+      <c r="C186" t="s">
         <v>591</v>
-      </c>
-      <c r="C186" t="s">
-        <v>592</v>
       </c>
       <c r="D186">
         <v>10993864</v>
       </c>
       <c r="E186" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F186" t="s">
         <v>43</v>
@@ -8746,16 +8746,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
+        <v>593</v>
+      </c>
+      <c r="C187" t="s">
         <v>594</v>
-      </c>
-      <c r="C187" t="s">
-        <v>595</v>
       </c>
       <c r="D187">
         <v>60050504</v>
       </c>
       <c r="E187" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F187" t="s">
         <v>43</v>
@@ -8772,13 +8772,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
+        <v>596</v>
+      </c>
+      <c r="C188" t="s">
         <v>597</v>
       </c>
-      <c r="C188" t="s">
+      <c r="E188" t="s">
         <v>598</v>
-      </c>
-      <c r="E188" t="s">
-        <v>599</v>
       </c>
       <c r="F188" t="s">
         <v>117</v>
@@ -8795,16 +8795,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
+        <v>599</v>
+      </c>
+      <c r="C189" t="s">
         <v>600</v>
-      </c>
-      <c r="C189" t="s">
-        <v>601</v>
       </c>
       <c r="D189">
         <v>33399427</v>
       </c>
       <c r="E189" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F189" t="s">
         <v>16</v>
@@ -8821,7 +8821,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C190" t="s">
         <v>84</v>
@@ -8830,7 +8830,7 @@
         <v>99188492</v>
       </c>
       <c r="E190" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F190" t="s">
         <v>16</v>
@@ -8847,16 +8847,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
+        <v>604</v>
+      </c>
+      <c r="C191" t="s">
         <v>605</v>
-      </c>
-      <c r="C191" t="s">
-        <v>606</v>
       </c>
       <c r="D191">
         <v>48865559</v>
       </c>
       <c r="E191" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F191" t="s">
         <v>22</v>
@@ -8873,16 +8873,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
+        <v>607</v>
+      </c>
+      <c r="C192" t="s">
         <v>608</v>
-      </c>
-      <c r="C192" t="s">
-        <v>609</v>
       </c>
       <c r="D192">
         <v>13177812</v>
       </c>
       <c r="E192" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F192" t="s">
         <v>43</v>
@@ -8899,16 +8899,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
+        <v>610</v>
+      </c>
+      <c r="C193" t="s">
         <v>611</v>
-      </c>
-      <c r="C193" t="s">
-        <v>612</v>
       </c>
       <c r="D193">
         <v>56609824</v>
       </c>
       <c r="E193" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F193" t="s">
         <v>43</v>
@@ -8925,16 +8925,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
+        <v>613</v>
+      </c>
+      <c r="C194" t="s">
         <v>614</v>
-      </c>
-      <c r="C194" t="s">
-        <v>615</v>
       </c>
       <c r="D194">
         <v>2229168</v>
       </c>
       <c r="E194" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F194" t="s">
         <v>11</v>
@@ -8951,16 +8951,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
+        <v>616</v>
+      </c>
+      <c r="C195" t="s">
         <v>617</v>
-      </c>
-      <c r="C195" t="s">
-        <v>618</v>
       </c>
       <c r="D195">
         <v>57193951</v>
       </c>
       <c r="E195" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F195" t="s">
         <v>43</v>
@@ -8977,16 +8977,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
+        <v>619</v>
+      </c>
+      <c r="C196" t="s">
         <v>620</v>
-      </c>
-      <c r="C196" t="s">
-        <v>621</v>
       </c>
       <c r="D196">
         <v>60749518</v>
       </c>
       <c r="E196" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F196" t="s">
         <v>43</v>
@@ -9003,13 +9003,13 @@
         <v>195</v>
       </c>
       <c r="C197" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D197">
         <v>31509516</v>
       </c>
       <c r="E197" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F197" t="s">
         <v>11</v>
@@ -9026,16 +9026,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
+        <v>624</v>
+      </c>
+      <c r="C198" t="s">
         <v>625</v>
-      </c>
-      <c r="C198" t="s">
-        <v>626</v>
       </c>
       <c r="D198">
         <v>98345155</v>
       </c>
       <c r="E198" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F198" t="s">
         <v>22</v>
@@ -9052,16 +9052,16 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
+        <v>627</v>
+      </c>
+      <c r="C199" t="s">
         <v>628</v>
-      </c>
-      <c r="C199" t="s">
-        <v>629</v>
       </c>
       <c r="D199">
         <v>7046454</v>
       </c>
       <c r="E199" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F199" t="s">
         <v>43</v>
@@ -9078,16 +9078,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
+        <v>630</v>
+      </c>
+      <c r="C200" t="s">
         <v>631</v>
-      </c>
-      <c r="C200" t="s">
-        <v>632</v>
       </c>
       <c r="D200">
         <v>1305380</v>
       </c>
       <c r="E200" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F200" t="s">
         <v>43</v>
@@ -9104,16 +9104,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
+        <v>633</v>
+      </c>
+      <c r="C201" t="s">
         <v>634</v>
-      </c>
-      <c r="C201" t="s">
-        <v>635</v>
       </c>
       <c r="D201">
         <v>72418396</v>
       </c>
       <c r="E201" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F201" t="s">
         <v>43</v>
@@ -9130,16 +9130,16 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
+        <v>636</v>
+      </c>
+      <c r="C202" t="s">
         <v>637</v>
-      </c>
-      <c r="C202" t="s">
-        <v>638</v>
       </c>
       <c r="D202">
         <v>61160628</v>
       </c>
       <c r="E202" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F202" t="s">
         <v>16</v>
@@ -9156,16 +9156,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
+        <v>639</v>
+      </c>
+      <c r="C203" t="s">
         <v>640</v>
-      </c>
-      <c r="C203" t="s">
-        <v>641</v>
       </c>
       <c r="D203">
         <v>38366338</v>
       </c>
       <c r="E203" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F203" t="s">
         <v>16</v>
@@ -9182,16 +9182,16 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
+        <v>642</v>
+      </c>
+      <c r="C204" t="s">
         <v>643</v>
-      </c>
-      <c r="C204" t="s">
-        <v>644</v>
       </c>
       <c r="D204">
         <v>25978414</v>
       </c>
       <c r="E204" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F204" t="s">
         <v>43</v>
@@ -9208,16 +9208,16 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
+        <v>645</v>
+      </c>
+      <c r="C205" t="s">
         <v>646</v>
-      </c>
-      <c r="C205" t="s">
-        <v>647</v>
       </c>
       <c r="D205">
         <v>77222659</v>
       </c>
       <c r="E205" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F205" t="s">
         <v>16</v>
@@ -9234,7 +9234,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C206" t="s">
         <v>164</v>
@@ -9243,7 +9243,7 @@
         <v>38057241</v>
       </c>
       <c r="E206" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F206" t="s">
         <v>16</v>
@@ -9260,16 +9260,16 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
+        <v>650</v>
+      </c>
+      <c r="C207" t="s">
         <v>651</v>
-      </c>
-      <c r="C207" t="s">
-        <v>652</v>
       </c>
       <c r="D207">
         <v>73848659</v>
       </c>
       <c r="E207" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F207" t="s">
         <v>43</v>
@@ -9286,16 +9286,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
+        <v>653</v>
+      </c>
+      <c r="C208" t="s">
         <v>654</v>
-      </c>
-      <c r="C208" t="s">
-        <v>655</v>
       </c>
       <c r="D208">
         <v>50576764</v>
       </c>
       <c r="E208" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F208" t="s">
         <v>11</v>
@@ -9312,16 +9312,16 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
+        <v>656</v>
+      </c>
+      <c r="C209" t="s">
         <v>657</v>
-      </c>
-      <c r="C209" t="s">
-        <v>658</v>
       </c>
       <c r="D209">
         <v>76804636</v>
       </c>
       <c r="E209" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F209" t="s">
         <v>16</v>
@@ -9338,16 +9338,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
+        <v>659</v>
+      </c>
+      <c r="C210" t="s">
         <v>660</v>
-      </c>
-      <c r="C210" t="s">
-        <v>661</v>
       </c>
       <c r="D210">
         <v>55173487</v>
       </c>
       <c r="E210" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F210" t="s">
         <v>11</v>
@@ -9364,16 +9364,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
+        <v>662</v>
+      </c>
+      <c r="C211" t="s">
         <v>663</v>
-      </c>
-      <c r="C211" t="s">
-        <v>664</v>
       </c>
       <c r="D211">
         <v>43766257</v>
       </c>
       <c r="E211" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F211" t="s">
         <v>22</v>
@@ -9390,16 +9390,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
+        <v>665</v>
+      </c>
+      <c r="C212" t="s">
         <v>666</v>
-      </c>
-      <c r="C212" t="s">
-        <v>667</v>
       </c>
       <c r="D212">
         <v>25314384</v>
       </c>
       <c r="E212" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F212" t="s">
         <v>43</v>
@@ -9416,16 +9416,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
+        <v>668</v>
+      </c>
+      <c r="C213" t="s">
         <v>669</v>
-      </c>
-      <c r="C213" t="s">
-        <v>670</v>
       </c>
       <c r="D213">
         <v>297553354</v>
       </c>
       <c r="E213" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F213" t="s">
         <v>110</v>
@@ -9442,16 +9442,16 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
+        <v>671</v>
+      </c>
+      <c r="C214" t="s">
         <v>672</v>
-      </c>
-      <c r="C214" t="s">
-        <v>673</v>
       </c>
       <c r="D214">
         <v>18356467</v>
       </c>
       <c r="E214" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F214" t="s">
         <v>22</v>
@@ -9468,16 +9468,16 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
+        <v>674</v>
+      </c>
+      <c r="C215" t="s">
         <v>675</v>
-      </c>
-      <c r="C215" t="s">
-        <v>676</v>
       </c>
       <c r="D215">
         <v>29168211</v>
       </c>
       <c r="E215" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F215" t="s">
         <v>22</v>
@@ -9494,16 +9494,16 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
+        <v>677</v>
+      </c>
+      <c r="C216" t="s">
         <v>678</v>
-      </c>
-      <c r="C216" t="s">
-        <v>679</v>
       </c>
       <c r="D216">
         <v>35740812</v>
       </c>
       <c r="E216" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F216" t="s">
         <v>43</v>
@@ -9520,16 +9520,16 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
+        <v>680</v>
+      </c>
+      <c r="C217" t="s">
         <v>681</v>
-      </c>
-      <c r="C217" t="s">
-        <v>682</v>
       </c>
       <c r="D217">
         <v>8390514</v>
       </c>
       <c r="E217" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F217" t="s">
         <v>11</v>
@@ -9546,16 +9546,16 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
+        <v>683</v>
+      </c>
+      <c r="C218" t="s">
         <v>684</v>
-      </c>
-      <c r="C218" t="s">
-        <v>685</v>
       </c>
       <c r="D218">
         <v>32581362</v>
       </c>
       <c r="E218" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F218" t="s">
         <v>16</v>
@@ -9572,22 +9572,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
+        <v>686</v>
+      </c>
+      <c r="C219" t="s">
         <v>687</v>
-      </c>
-      <c r="C219" t="s">
-        <v>688</v>
       </c>
       <c r="D219">
         <v>6886967</v>
       </c>
       <c r="E219" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F219" t="s">
         <v>16</v>
       </c>
       <c r="G219" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H219" t="s">
         <v>18</v>
@@ -9598,16 +9598,16 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
+        <v>689</v>
+      </c>
+      <c r="C220" t="s">
         <v>690</v>
-      </c>
-      <c r="C220" t="s">
-        <v>691</v>
       </c>
       <c r="D220">
         <v>76233090</v>
       </c>
       <c r="E220" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F220" t="s">
         <v>16</v>
@@ -9624,16 +9624,16 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
+        <v>692</v>
+      </c>
+      <c r="C221" t="s">
         <v>693</v>
-      </c>
-      <c r="C221" t="s">
-        <v>694</v>
       </c>
       <c r="D221">
         <v>55006554</v>
       </c>
       <c r="E221" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F221" t="s">
         <v>92</v>
@@ -9650,16 +9650,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
+        <v>695</v>
+      </c>
+      <c r="C222" t="s">
         <v>696</v>
-      </c>
-      <c r="C222" t="s">
-        <v>697</v>
       </c>
       <c r="D222">
         <v>63437935</v>
       </c>
       <c r="E222" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F222" t="s">
         <v>110</v>
@@ -9676,16 +9676,16 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
+        <v>698</v>
+      </c>
+      <c r="C223" t="s">
         <v>699</v>
-      </c>
-      <c r="C223" t="s">
-        <v>700</v>
       </c>
       <c r="D223">
         <v>27136704</v>
       </c>
       <c r="E223" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F223" t="s">
         <v>110</v>
@@ -9702,16 +9702,16 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
+        <v>701</v>
+      </c>
+      <c r="C224" t="s">
         <v>702</v>
-      </c>
-      <c r="C224" t="s">
-        <v>703</v>
       </c>
       <c r="D224">
         <v>14202533</v>
       </c>
       <c r="E224" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F224" t="s">
         <v>16</v>
@@ -9728,22 +9728,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
+        <v>704</v>
+      </c>
+      <c r="C225" t="s">
         <v>705</v>
-      </c>
-      <c r="C225" t="s">
-        <v>706</v>
       </c>
       <c r="D225">
         <v>10515972</v>
       </c>
       <c r="E225" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F225" t="s">
+        <v>539</v>
+      </c>
+      <c r="G225" t="s">
         <v>540</v>
-      </c>
-      <c r="G225" t="s">
-        <v>541</v>
       </c>
       <c r="H225" t="s">
         <v>12</v>
@@ -9754,22 +9754,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
+        <v>707</v>
+      </c>
+      <c r="C226" t="s">
         <v>708</v>
-      </c>
-      <c r="C226" t="s">
-        <v>709</v>
       </c>
       <c r="D226">
         <v>80884705</v>
       </c>
       <c r="E226" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F226" t="s">
         <v>16</v>
       </c>
       <c r="G226" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H226" t="s">
         <v>12</v>
@@ -9780,16 +9780,16 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
+        <v>710</v>
+      </c>
+      <c r="C227" t="s">
         <v>711</v>
-      </c>
-      <c r="C227" t="s">
-        <v>712</v>
       </c>
       <c r="D227">
         <v>92556300</v>
       </c>
       <c r="E227" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F227" t="s">
         <v>11</v>
@@ -9806,16 +9806,16 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
+        <v>713</v>
+      </c>
+      <c r="C228" t="s">
         <v>714</v>
-      </c>
-      <c r="C228" t="s">
-        <v>715</v>
       </c>
       <c r="D228">
         <v>27652521</v>
       </c>
       <c r="E228" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F228" t="s">
         <v>16</v>
@@ -9832,16 +9832,16 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
+        <v>716</v>
+      </c>
+      <c r="C229" t="s">
         <v>717</v>
-      </c>
-      <c r="C229" t="s">
-        <v>718</v>
       </c>
       <c r="D229">
         <v>90747427</v>
       </c>
       <c r="E229" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F229" t="s">
         <v>16</v>
@@ -9858,22 +9858,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
+        <v>719</v>
+      </c>
+      <c r="C230" t="s">
         <v>720</v>
-      </c>
-      <c r="C230" t="s">
-        <v>721</v>
       </c>
       <c r="D230">
         <v>4933263</v>
       </c>
       <c r="E230" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F230" t="s">
         <v>131</v>
       </c>
       <c r="G230" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H230" t="s">
         <v>12</v>
@@ -9884,16 +9884,16 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
+        <v>723</v>
+      </c>
+      <c r="C231" t="s">
         <v>724</v>
-      </c>
-      <c r="C231" t="s">
-        <v>725</v>
       </c>
       <c r="D231">
         <v>52674367</v>
       </c>
       <c r="E231" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F231" t="s">
         <v>16</v>
@@ -9910,16 +9910,16 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
+        <v>726</v>
+      </c>
+      <c r="C232" t="s">
         <v>727</v>
-      </c>
-      <c r="C232" t="s">
-        <v>728</v>
       </c>
       <c r="D232">
         <v>81925069</v>
       </c>
       <c r="E232" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F232" t="s">
         <v>43</v>
@@ -9936,7 +9936,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C233" t="s">
         <v>310</v>
@@ -9945,13 +9945,13 @@
         <v>79210137</v>
       </c>
       <c r="E233" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F233" t="s">
         <v>131</v>
       </c>
       <c r="G233" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H233" t="s">
         <v>12</v>
@@ -9962,16 +9962,16 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
+        <v>731</v>
+      </c>
+      <c r="C234" t="s">
         <v>732</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>733</v>
       </c>
-      <c r="D234" t="s">
+      <c r="E234" t="s">
         <v>734</v>
-      </c>
-      <c r="E234" t="s">
-        <v>735</v>
       </c>
       <c r="F234" t="s">
         <v>16</v>
@@ -9988,16 +9988,16 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
+        <v>735</v>
+      </c>
+      <c r="C235" t="s">
         <v>736</v>
-      </c>
-      <c r="C235" t="s">
-        <v>737</v>
       </c>
       <c r="D235">
         <v>74287651</v>
       </c>
       <c r="E235" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F235" t="s">
         <v>16</v>
@@ -10014,16 +10014,16 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
+        <v>738</v>
+      </c>
+      <c r="C236" t="s">
         <v>739</v>
-      </c>
-      <c r="C236" t="s">
-        <v>740</v>
       </c>
       <c r="D236">
         <v>87995138</v>
       </c>
       <c r="E236" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F236" t="s">
         <v>16</v>
@@ -10040,16 +10040,16 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
+        <v>741</v>
+      </c>
+      <c r="C237" t="s">
         <v>742</v>
-      </c>
-      <c r="C237" t="s">
-        <v>743</v>
       </c>
       <c r="D237">
         <v>32290220</v>
       </c>
       <c r="E237" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F237" t="s">
         <v>16</v>
@@ -10066,16 +10066,16 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
+        <v>744</v>
+      </c>
+      <c r="C238" t="s">
         <v>745</v>
-      </c>
-      <c r="C238" t="s">
-        <v>746</v>
       </c>
       <c r="D238">
         <v>47665615</v>
       </c>
       <c r="E238" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F238" t="s">
         <v>16</v>
@@ -10092,16 +10092,16 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
+        <v>747</v>
+      </c>
+      <c r="C239" t="s">
         <v>748</v>
-      </c>
-      <c r="C239" t="s">
-        <v>749</v>
       </c>
       <c r="D239">
         <v>1289956</v>
       </c>
       <c r="E239" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F239" t="s">
         <v>92</v>
@@ -10118,16 +10118,16 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
+        <v>750</v>
+      </c>
+      <c r="C240" t="s">
         <v>751</v>
-      </c>
-      <c r="C240" t="s">
-        <v>752</v>
       </c>
       <c r="D240">
         <v>43843620</v>
       </c>
       <c r="E240" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F240" t="s">
         <v>43</v>
@@ -10144,13 +10144,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
+        <v>753</v>
+      </c>
+      <c r="C241" t="s">
         <v>754</v>
       </c>
-      <c r="C241" t="s">
+      <c r="E241" t="s">
         <v>755</v>
-      </c>
-      <c r="E241" t="s">
-        <v>756</v>
       </c>
       <c r="F241" t="s">
         <v>16</v>
@@ -10167,16 +10167,16 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
+        <v>756</v>
+      </c>
+      <c r="C242" t="s">
         <v>757</v>
-      </c>
-      <c r="C242" t="s">
-        <v>758</v>
       </c>
       <c r="D242">
         <v>93872849</v>
       </c>
       <c r="E242" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F242" t="s">
         <v>22</v>
@@ -10193,16 +10193,16 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
+        <v>759</v>
+      </c>
+      <c r="C243" t="s">
         <v>760</v>
-      </c>
-      <c r="C243" t="s">
-        <v>761</v>
       </c>
       <c r="D243">
         <v>62900535</v>
       </c>
       <c r="E243" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F243" t="s">
         <v>16</v>
@@ -10219,16 +10219,16 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
+        <v>762</v>
+      </c>
+      <c r="C244" t="s">
         <v>763</v>
-      </c>
-      <c r="C244" t="s">
-        <v>764</v>
       </c>
       <c r="D244">
         <v>625250</v>
       </c>
       <c r="E244" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F244" t="s">
         <v>16</v>
@@ -10245,16 +10245,16 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
+        <v>765</v>
+      </c>
+      <c r="C245" t="s">
         <v>766</v>
-      </c>
-      <c r="C245" t="s">
-        <v>767</v>
       </c>
       <c r="D245">
         <v>13148463</v>
       </c>
       <c r="E245" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F245" t="s">
         <v>16</v>
@@ -10271,16 +10271,16 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
+        <v>768</v>
+      </c>
+      <c r="C246" t="s">
         <v>769</v>
-      </c>
-      <c r="C246" t="s">
-        <v>770</v>
       </c>
       <c r="D246">
         <v>12677412</v>
       </c>
       <c r="E246" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F246" t="s">
         <v>16</v>
@@ -10297,22 +10297,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
+        <v>771</v>
+      </c>
+      <c r="C247" t="s">
         <v>772</v>
-      </c>
-      <c r="C247" t="s">
-        <v>773</v>
       </c>
       <c r="D247">
         <v>8543767</v>
       </c>
       <c r="E247" t="s">
+        <v>773</v>
+      </c>
+      <c r="F247" t="s">
+        <v>16</v>
+      </c>
+      <c r="G247" t="s">
         <v>774</v>
-      </c>
-      <c r="F247" t="s">
-        <v>16</v>
-      </c>
-      <c r="G247" t="s">
-        <v>775</v>
       </c>
       <c r="H247" t="s">
         <v>12</v>
@@ -10323,16 +10323,16 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
+        <v>775</v>
+      </c>
+      <c r="C248" t="s">
         <v>776</v>
-      </c>
-      <c r="C248" t="s">
-        <v>777</v>
       </c>
       <c r="D248">
         <v>35505831</v>
       </c>
       <c r="E248" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F248" t="s">
         <v>312</v>
@@ -10349,16 +10349,16 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
+        <v>778</v>
+      </c>
+      <c r="C249" t="s">
         <v>779</v>
-      </c>
-      <c r="C249" t="s">
-        <v>780</v>
       </c>
       <c r="D249">
         <v>38751312</v>
       </c>
       <c r="E249" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F249" t="s">
         <v>16</v>
@@ -10375,22 +10375,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
+        <v>781</v>
+      </c>
+      <c r="C250" t="s">
         <v>782</v>
-      </c>
-      <c r="C250" t="s">
-        <v>783</v>
       </c>
       <c r="D250">
         <v>32812211</v>
       </c>
       <c r="E250" t="s">
+        <v>783</v>
+      </c>
+      <c r="F250" t="s">
+        <v>16</v>
+      </c>
+      <c r="G250" t="s">
         <v>784</v>
-      </c>
-      <c r="F250" t="s">
-        <v>16</v>
-      </c>
-      <c r="G250" t="s">
-        <v>785</v>
       </c>
       <c r="H250" t="s">
         <v>12</v>
@@ -10401,16 +10401,16 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
+        <v>785</v>
+      </c>
+      <c r="C251" t="s">
         <v>786</v>
-      </c>
-      <c r="C251" t="s">
-        <v>787</v>
       </c>
       <c r="D251">
         <v>10150256</v>
       </c>
       <c r="E251" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F251" t="s">
         <v>22</v>
@@ -10427,16 +10427,16 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
+        <v>788</v>
+      </c>
+      <c r="C252" t="s">
         <v>789</v>
-      </c>
-      <c r="C252" t="s">
-        <v>790</v>
       </c>
       <c r="D252">
         <v>19006671</v>
       </c>
       <c r="E252" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F252" t="s">
         <v>22</v>
@@ -10453,16 +10453,16 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
+        <v>791</v>
+      </c>
+      <c r="C253" t="s">
         <v>792</v>
-      </c>
-      <c r="C253" t="s">
-        <v>793</v>
       </c>
       <c r="D253">
         <v>17746113</v>
       </c>
       <c r="E253" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F253" t="s">
         <v>16</v>
@@ -10479,16 +10479,16 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
+        <v>794</v>
+      </c>
+      <c r="C254" t="s">
         <v>795</v>
-      </c>
-      <c r="C254" t="s">
-        <v>796</v>
       </c>
       <c r="D254">
         <v>43020849</v>
       </c>
       <c r="E254" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F254" t="s">
         <v>43</v>
@@ -10505,16 +10505,16 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
+        <v>797</v>
+      </c>
+      <c r="C255" t="s">
         <v>798</v>
-      </c>
-      <c r="C255" t="s">
-        <v>799</v>
       </c>
       <c r="D255">
         <v>749613</v>
       </c>
       <c r="E255" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F255" t="s">
         <v>11</v>
@@ -10531,16 +10531,16 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
+        <v>800</v>
+      </c>
+      <c r="C256" t="s">
         <v>801</v>
-      </c>
-      <c r="C256" t="s">
-        <v>802</v>
       </c>
       <c r="D256">
         <v>59069308</v>
       </c>
       <c r="E256" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F256" t="s">
         <v>43</v>
@@ -10557,16 +10557,16 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C257" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D257">
         <v>5834703</v>
       </c>
       <c r="E257" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F257" t="s">
         <v>16</v>
@@ -10583,16 +10583,16 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
+        <v>805</v>
+      </c>
+      <c r="C258" t="s">
         <v>806</v>
-      </c>
-      <c r="C258" t="s">
-        <v>807</v>
       </c>
       <c r="D258">
         <v>48349084</v>
       </c>
       <c r="E258" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F258" t="s">
         <v>43</v>
@@ -10609,16 +10609,16 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
+        <v>808</v>
+      </c>
+      <c r="C259" t="s">
         <v>809</v>
-      </c>
-      <c r="C259" t="s">
-        <v>810</v>
       </c>
       <c r="D259">
         <v>36142987</v>
       </c>
       <c r="E259" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F259" t="s">
         <v>43</v>
@@ -10635,16 +10635,16 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
+        <v>811</v>
+      </c>
+      <c r="C260" t="s">
         <v>812</v>
-      </c>
-      <c r="C260" t="s">
-        <v>813</v>
       </c>
       <c r="D260">
         <v>28517250</v>
       </c>
       <c r="E260" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F260" t="s">
         <v>16</v>
@@ -10661,16 +10661,16 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
+        <v>814</v>
+      </c>
+      <c r="C261" t="s">
         <v>815</v>
-      </c>
-      <c r="C261" t="s">
-        <v>816</v>
       </c>
       <c r="D261">
         <v>66672490</v>
       </c>
       <c r="E261" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F261" t="s">
         <v>43</v>
@@ -10687,19 +10687,19 @@
         <v>260</v>
       </c>
       <c r="C262" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D262">
         <v>55105725</v>
       </c>
       <c r="E262" t="s">
+        <v>818</v>
+      </c>
+      <c r="F262" t="s">
+        <v>16</v>
+      </c>
+      <c r="G262" t="s">
         <v>819</v>
-      </c>
-      <c r="F262" t="s">
-        <v>16</v>
-      </c>
-      <c r="G262" t="s">
-        <v>820</v>
       </c>
       <c r="H262" t="s">
         <v>12</v>
@@ -10710,16 +10710,16 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
+        <v>820</v>
+      </c>
+      <c r="C263" t="s">
         <v>821</v>
-      </c>
-      <c r="C263" t="s">
-        <v>822</v>
       </c>
       <c r="D263">
         <v>81422274</v>
       </c>
       <c r="E263" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F263" t="s">
         <v>16</v>
@@ -10736,16 +10736,16 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
+        <v>823</v>
+      </c>
+      <c r="C264" t="s">
         <v>824</v>
-      </c>
-      <c r="C264" t="s">
-        <v>825</v>
       </c>
       <c r="D264">
         <v>80652667</v>
       </c>
       <c r="E264" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F264" t="s">
         <v>117</v>
@@ -10762,16 +10762,16 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
+        <v>826</v>
+      </c>
+      <c r="C265" t="s">
         <v>827</v>
-      </c>
-      <c r="C265" t="s">
-        <v>828</v>
       </c>
       <c r="D265">
         <v>72397994</v>
       </c>
       <c r="E265" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F265" t="s">
         <v>22</v>
@@ -10788,16 +10788,16 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
+        <v>829</v>
+      </c>
+      <c r="C266" t="s">
         <v>830</v>
-      </c>
-      <c r="C266" t="s">
-        <v>831</v>
       </c>
       <c r="D266">
         <v>8917267</v>
       </c>
       <c r="E266" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F266" t="s">
         <v>22</v>
@@ -10814,16 +10814,16 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
+        <v>832</v>
+      </c>
+      <c r="C267" t="s">
         <v>833</v>
-      </c>
-      <c r="C267" t="s">
-        <v>834</v>
       </c>
       <c r="D267">
         <v>56922420</v>
       </c>
       <c r="E267" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F267" t="s">
         <v>117</v>
@@ -10840,7 +10840,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C268" t="s">
         <v>192</v>
@@ -10849,7 +10849,7 @@
         <v>61138344</v>
       </c>
       <c r="E268" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F268" t="s">
         <v>43</v>
@@ -10866,22 +10866,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
+        <v>837</v>
+      </c>
+      <c r="C269" t="s">
         <v>838</v>
-      </c>
-      <c r="C269" t="s">
-        <v>839</v>
       </c>
       <c r="D269">
         <v>87698219</v>
       </c>
       <c r="E269" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F269" t="s">
         <v>16</v>
       </c>
       <c r="G269" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H269" t="s">
         <v>18</v>
@@ -10892,16 +10892,16 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
+        <v>840</v>
+      </c>
+      <c r="C270" t="s">
         <v>841</v>
-      </c>
-      <c r="C270" t="s">
-        <v>842</v>
       </c>
       <c r="D270">
         <v>86009043</v>
       </c>
       <c r="E270" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F270" t="s">
         <v>16</v>
@@ -10918,22 +10918,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
+        <v>843</v>
+      </c>
+      <c r="C271" t="s">
         <v>844</v>
-      </c>
-      <c r="C271" t="s">
-        <v>845</v>
       </c>
       <c r="D271">
         <v>5326680</v>
       </c>
       <c r="E271" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F271" t="s">
+        <v>539</v>
+      </c>
+      <c r="G271" t="s">
         <v>540</v>
-      </c>
-      <c r="G271" t="s">
-        <v>541</v>
       </c>
       <c r="H271" t="s">
         <v>12</v>
@@ -10944,16 +10944,16 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
+        <v>846</v>
+      </c>
+      <c r="C272" t="s">
         <v>847</v>
-      </c>
-      <c r="C272" t="s">
-        <v>848</v>
       </c>
       <c r="D272">
         <v>74078707</v>
       </c>
       <c r="E272" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F272" t="s">
         <v>22</v>
@@ -10970,7 +10970,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C273" t="s">
         <v>233</v>
@@ -10979,7 +10979,7 @@
         <v>87357028</v>
       </c>
       <c r="E273" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F273" t="s">
         <v>16</v>
@@ -10996,16 +10996,16 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
+        <v>851</v>
+      </c>
+      <c r="C274" t="s">
         <v>852</v>
-      </c>
-      <c r="C274" t="s">
-        <v>853</v>
       </c>
       <c r="D274">
         <v>96858699</v>
       </c>
       <c r="E274" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F274" t="s">
         <v>16</v>
@@ -11022,16 +11022,16 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
+        <v>854</v>
+      </c>
+      <c r="C275" t="s">
         <v>855</v>
-      </c>
-      <c r="C275" t="s">
-        <v>856</v>
       </c>
       <c r="D275">
         <v>90605046</v>
       </c>
       <c r="E275" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F275" t="s">
         <v>22</v>
@@ -11048,22 +11048,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
+        <v>857</v>
+      </c>
+      <c r="C276" t="s">
         <v>858</v>
-      </c>
-      <c r="C276" t="s">
-        <v>859</v>
       </c>
       <c r="D276">
         <v>83046225</v>
       </c>
       <c r="E276" t="s">
+        <v>859</v>
+      </c>
+      <c r="F276" t="s">
+        <v>16</v>
+      </c>
+      <c r="G276" t="s">
         <v>860</v>
-      </c>
-      <c r="F276" t="s">
-        <v>16</v>
-      </c>
-      <c r="G276" t="s">
-        <v>861</v>
       </c>
       <c r="H276" t="s">
         <v>12</v>
@@ -11074,16 +11074,16 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
+        <v>861</v>
+      </c>
+      <c r="C277" t="s">
         <v>862</v>
-      </c>
-      <c r="C277" t="s">
-        <v>863</v>
       </c>
       <c r="D277">
         <v>97290508</v>
       </c>
       <c r="E277" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F277" t="s">
         <v>11</v>
@@ -11100,16 +11100,16 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
+        <v>864</v>
+      </c>
+      <c r="C278" t="s">
         <v>865</v>
-      </c>
-      <c r="C278" t="s">
-        <v>866</v>
       </c>
       <c r="D278">
         <v>92538111</v>
       </c>
       <c r="E278" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F278" t="s">
         <v>43</v>
@@ -11126,16 +11126,16 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
+        <v>867</v>
+      </c>
+      <c r="C279" t="s">
         <v>868</v>
-      </c>
-      <c r="C279" t="s">
-        <v>869</v>
       </c>
       <c r="D279">
         <v>91366780</v>
       </c>
       <c r="E279" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F279" t="s">
         <v>22</v>
@@ -11152,13 +11152,13 @@
         <v>278</v>
       </c>
       <c r="C280" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D280">
         <v>34683394</v>
       </c>
       <c r="E280" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F280" t="s">
         <v>11</v>
@@ -11175,7 +11175,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C281" t="s">
         <v>340</v>
@@ -11184,7 +11184,7 @@
         <v>89517361</v>
       </c>
       <c r="E281" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F281" t="s">
         <v>16</v>
@@ -11201,16 +11201,16 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
+        <v>874</v>
+      </c>
+      <c r="C282" t="s">
         <v>875</v>
-      </c>
-      <c r="C282" t="s">
-        <v>876</v>
       </c>
       <c r="D282">
         <v>94373068</v>
       </c>
       <c r="E282" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F282" t="s">
         <v>110</v>
@@ -11227,16 +11227,16 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
+        <v>877</v>
+      </c>
+      <c r="C283" t="s">
         <v>878</v>
-      </c>
-      <c r="C283" t="s">
-        <v>879</v>
       </c>
       <c r="D283">
         <v>74582680</v>
       </c>
       <c r="E283" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F283" t="s">
         <v>43</v>
@@ -11253,16 +11253,16 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
+        <v>880</v>
+      </c>
+      <c r="C284" t="s">
         <v>881</v>
-      </c>
-      <c r="C284" t="s">
-        <v>882</v>
       </c>
       <c r="D284">
         <v>84636634</v>
       </c>
       <c r="E284" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F284" t="s">
         <v>16</v>
@@ -11279,16 +11279,16 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
+        <v>883</v>
+      </c>
+      <c r="C285" t="s">
         <v>884</v>
-      </c>
-      <c r="C285" t="s">
-        <v>885</v>
       </c>
       <c r="D285">
         <v>96785582</v>
       </c>
       <c r="E285" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F285" t="s">
         <v>92</v>
@@ -11305,16 +11305,16 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
+        <v>886</v>
+      </c>
+      <c r="C286" t="s">
         <v>887</v>
-      </c>
-      <c r="C286" t="s">
-        <v>888</v>
       </c>
       <c r="D286">
         <v>98678462</v>
       </c>
       <c r="E286" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F286" t="s">
         <v>16</v>
@@ -11331,16 +11331,16 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
+        <v>889</v>
+      </c>
+      <c r="C287" t="s">
         <v>890</v>
-      </c>
-      <c r="C287" t="s">
-        <v>891</v>
       </c>
       <c r="D287">
         <v>83503218</v>
       </c>
       <c r="E287" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F287" t="s">
         <v>16</v>
@@ -11357,16 +11357,16 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
+        <v>892</v>
+      </c>
+      <c r="C288" t="s">
         <v>893</v>
-      </c>
-      <c r="C288" t="s">
-        <v>894</v>
       </c>
       <c r="D288">
         <v>82240851</v>
       </c>
       <c r="E288" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F288" t="s">
         <v>16</v>
@@ -11383,16 +11383,16 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
+        <v>895</v>
+      </c>
+      <c r="C289" t="s">
         <v>896</v>
-      </c>
-      <c r="C289" t="s">
-        <v>897</v>
       </c>
       <c r="D289">
         <v>94052064</v>
       </c>
       <c r="E289" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F289" t="s">
         <v>16</v>
@@ -11409,16 +11409,16 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
+        <v>898</v>
+      </c>
+      <c r="C290" t="s">
         <v>899</v>
-      </c>
-      <c r="C290" t="s">
-        <v>900</v>
       </c>
       <c r="D290">
         <v>48334954</v>
       </c>
       <c r="E290" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F290" t="s">
         <v>16</v>
@@ -11435,16 +11435,16 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
+        <v>901</v>
+      </c>
+      <c r="C291" t="s">
         <v>902</v>
-      </c>
-      <c r="C291" t="s">
-        <v>903</v>
       </c>
       <c r="D291">
         <v>12789689</v>
       </c>
       <c r="E291" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F291" t="s">
         <v>43</v>
@@ -11461,16 +11461,16 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
+        <v>904</v>
+      </c>
+      <c r="C292" t="s">
         <v>905</v>
-      </c>
-      <c r="C292" t="s">
-        <v>906</v>
       </c>
       <c r="D292">
         <v>87524798</v>
       </c>
       <c r="E292" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F292" t="s">
         <v>16</v>
@@ -11487,7 +11487,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C293" t="s">
         <v>203</v>
@@ -11496,7 +11496,7 @@
         <v>29124967</v>
       </c>
       <c r="E293" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F293" t="s">
         <v>11</v>
@@ -11513,7 +11513,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C294" t="s">
         <v>41</v>
@@ -11522,7 +11522,7 @@
         <v>93855497</v>
       </c>
       <c r="E294" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F294" t="s">
         <v>16</v>
@@ -11539,16 +11539,16 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
+        <v>911</v>
+      </c>
+      <c r="C295" t="s">
         <v>912</v>
-      </c>
-      <c r="C295" t="s">
-        <v>913</v>
       </c>
       <c r="D295">
         <v>52759930</v>
       </c>
       <c r="E295" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F295" t="s">
         <v>11</v>
@@ -11565,16 +11565,16 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
+        <v>914</v>
+      </c>
+      <c r="C296" t="s">
         <v>915</v>
-      </c>
-      <c r="C296" t="s">
-        <v>916</v>
       </c>
       <c r="D296">
         <v>38523676</v>
       </c>
       <c r="E296" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F296" t="s">
         <v>22</v>
@@ -11591,16 +11591,16 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
+        <v>917</v>
+      </c>
+      <c r="C297" t="s">
         <v>918</v>
-      </c>
-      <c r="C297" t="s">
-        <v>919</v>
       </c>
       <c r="D297">
         <v>71940199</v>
       </c>
       <c r="E297" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F297" t="s">
         <v>16</v>
@@ -11617,16 +11617,16 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C298" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D298">
         <v>87566215</v>
       </c>
       <c r="E298" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F298" t="s">
         <v>16</v>
@@ -11643,16 +11643,16 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
+        <v>922</v>
+      </c>
+      <c r="C299" t="s">
         <v>923</v>
-      </c>
-      <c r="C299" t="s">
-        <v>924</v>
       </c>
       <c r="D299">
         <v>50745838</v>
       </c>
       <c r="E299" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F299" t="s">
         <v>22</v>
@@ -11669,22 +11669,22 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
+        <v>925</v>
+      </c>
+      <c r="C300" t="s">
         <v>926</v>
-      </c>
-      <c r="C300" t="s">
-        <v>927</v>
       </c>
       <c r="D300">
         <v>47007561</v>
       </c>
       <c r="E300" t="s">
+        <v>927</v>
+      </c>
+      <c r="F300" t="s">
         <v>928</v>
       </c>
-      <c r="F300" t="s">
-        <v>929</v>
-      </c>
       <c r="G300" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H300" t="s">
         <v>18</v>
@@ -11695,16 +11695,16 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C301" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D301">
         <v>96173121</v>
       </c>
       <c r="E301" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F301" t="s">
         <v>11</v>
@@ -11721,16 +11721,16 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
+        <v>931</v>
+      </c>
+      <c r="C302" t="s">
         <v>932</v>
-      </c>
-      <c r="C302" t="s">
-        <v>933</v>
       </c>
       <c r="D302">
         <v>96065789</v>
       </c>
       <c r="E302" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F302" t="s">
         <v>16</v>
@@ -11747,16 +11747,16 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
+        <v>934</v>
+      </c>
+      <c r="C303" t="s">
         <v>935</v>
-      </c>
-      <c r="C303" t="s">
-        <v>936</v>
       </c>
       <c r="D303">
         <v>94753435</v>
       </c>
       <c r="E303" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F303" t="s">
         <v>16</v>
@@ -11773,16 +11773,16 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
+        <v>937</v>
+      </c>
+      <c r="C304" t="s">
         <v>938</v>
-      </c>
-      <c r="C304" t="s">
-        <v>939</v>
       </c>
       <c r="D304">
         <v>55897060</v>
       </c>
       <c r="E304" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F304" t="s">
         <v>43</v>
@@ -11799,7 +11799,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C305" t="s">
         <v>37</v>
@@ -11808,7 +11808,7 @@
         <v>44883229</v>
       </c>
       <c r="E305" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F305" t="s">
         <v>16</v>
@@ -11825,16 +11825,16 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
+        <v>942</v>
+      </c>
+      <c r="C306" t="s">
         <v>943</v>
-      </c>
-      <c r="C306" t="s">
-        <v>944</v>
       </c>
       <c r="D306">
         <v>70185847</v>
       </c>
       <c r="E306" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F306" t="s">
         <v>22</v>
@@ -11851,16 +11851,16 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
+        <v>945</v>
+      </c>
+      <c r="C307" t="s">
         <v>946</v>
-      </c>
-      <c r="C307" t="s">
-        <v>947</v>
       </c>
       <c r="D307">
         <v>64565176</v>
       </c>
       <c r="E307" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F307" t="s">
         <v>43</v>
@@ -11877,16 +11877,16 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C308" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D308">
         <v>47312580</v>
       </c>
       <c r="E308" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F308" t="s">
         <v>16</v>
@@ -11903,16 +11903,16 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
+        <v>950</v>
+      </c>
+      <c r="C309" t="s">
         <v>951</v>
-      </c>
-      <c r="C309" t="s">
-        <v>952</v>
       </c>
       <c r="D309">
         <v>49392193</v>
       </c>
       <c r="E309" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F309" t="s">
         <v>22</v>
@@ -11929,16 +11929,16 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C310" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D310">
         <v>26110523</v>
       </c>
       <c r="E310" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F310" t="s">
         <v>16</v>
@@ -11955,22 +11955,22 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
+        <v>955</v>
+      </c>
+      <c r="C311" t="s">
         <v>956</v>
-      </c>
-      <c r="C311" t="s">
-        <v>957</v>
       </c>
       <c r="D311">
         <v>64574239</v>
       </c>
       <c r="E311" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F311" t="s">
         <v>16</v>
       </c>
       <c r="G311" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H311" t="s">
         <v>18</v>
@@ -11981,16 +11981,16 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
+        <v>958</v>
+      </c>
+      <c r="C312" t="s">
         <v>959</v>
-      </c>
-      <c r="C312" t="s">
-        <v>960</v>
       </c>
       <c r="D312">
         <v>82567886</v>
       </c>
       <c r="E312" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F312" t="s">
         <v>22</v>
@@ -12007,16 +12007,16 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
+        <v>961</v>
+      </c>
+      <c r="C313" t="s">
         <v>962</v>
-      </c>
-      <c r="C313" t="s">
-        <v>963</v>
       </c>
       <c r="D313">
         <v>57424891</v>
       </c>
       <c r="E313" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F313" t="s">
         <v>16</v>
@@ -12033,16 +12033,16 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
+        <v>964</v>
+      </c>
+      <c r="C314" t="s">
         <v>965</v>
-      </c>
-      <c r="C314" t="s">
-        <v>966</v>
       </c>
       <c r="D314">
         <v>74244135</v>
       </c>
       <c r="E314" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F314" t="s">
         <v>16</v>
@@ -12059,16 +12059,16 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
+        <v>967</v>
+      </c>
+      <c r="C315" t="s">
         <v>968</v>
-      </c>
-      <c r="C315" t="s">
-        <v>969</v>
       </c>
       <c r="D315">
         <v>97970297</v>
       </c>
       <c r="E315" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F315" t="s">
         <v>11</v>
@@ -12085,16 +12085,16 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
+        <v>970</v>
+      </c>
+      <c r="C316" t="s">
         <v>971</v>
-      </c>
-      <c r="C316" t="s">
-        <v>972</v>
       </c>
       <c r="D316">
         <v>85652428</v>
       </c>
       <c r="E316" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F316" t="s">
         <v>43</v>
@@ -12111,16 +12111,16 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
+        <v>973</v>
+      </c>
+      <c r="C317" t="s">
         <v>974</v>
-      </c>
-      <c r="C317" t="s">
-        <v>975</v>
       </c>
       <c r="D317">
         <v>87589436</v>
       </c>
       <c r="E317" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F317" t="s">
         <v>16</v>
@@ -12137,16 +12137,16 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
+        <v>976</v>
+      </c>
+      <c r="C318" t="s">
         <v>977</v>
-      </c>
-      <c r="C318" t="s">
-        <v>978</v>
       </c>
       <c r="D318">
         <v>52877984</v>
       </c>
       <c r="E318" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F318" t="s">
         <v>16</v>
@@ -12163,16 +12163,16 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
+        <v>979</v>
+      </c>
+      <c r="C319" t="s">
         <v>980</v>
-      </c>
-      <c r="C319" t="s">
-        <v>981</v>
       </c>
       <c r="D319">
         <v>8740830</v>
       </c>
       <c r="E319" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F319" t="s">
         <v>43</v>
@@ -12189,16 +12189,16 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
+        <v>982</v>
+      </c>
+      <c r="C320" t="s">
         <v>983</v>
-      </c>
-      <c r="C320" t="s">
-        <v>984</v>
       </c>
       <c r="D320">
         <v>28149952</v>
       </c>
       <c r="E320" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F320" t="s">
         <v>22</v>
@@ -12215,16 +12215,16 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
+        <v>985</v>
+      </c>
+      <c r="C321" t="s">
         <v>986</v>
-      </c>
-      <c r="C321" t="s">
-        <v>987</v>
       </c>
       <c r="D321">
         <v>68453004</v>
       </c>
       <c r="E321" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F321" t="s">
         <v>22</v>
@@ -12241,16 +12241,16 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
+        <v>988</v>
+      </c>
+      <c r="C322" t="s">
         <v>989</v>
-      </c>
-      <c r="C322" t="s">
-        <v>990</v>
       </c>
       <c r="D322">
         <v>57482158</v>
       </c>
       <c r="E322" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F322" t="s">
         <v>43</v>
@@ -12267,16 +12267,16 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
+        <v>991</v>
+      </c>
+      <c r="C323" t="s">
         <v>992</v>
-      </c>
-      <c r="C323" t="s">
-        <v>993</v>
       </c>
       <c r="D323">
         <v>54526080</v>
       </c>
       <c r="E323" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F323" t="s">
         <v>16</v>
@@ -12293,16 +12293,16 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
+        <v>993</v>
+      </c>
+      <c r="C324" t="s">
         <v>994</v>
-      </c>
-      <c r="C324" t="s">
-        <v>995</v>
       </c>
       <c r="D324">
         <v>5220894</v>
       </c>
       <c r="E324" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F324" t="s">
         <v>16</v>
@@ -12319,22 +12319,22 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C325" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D325">
         <v>94050273</v>
       </c>
       <c r="E325" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F325" t="s">
         <v>16</v>
       </c>
       <c r="G325" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H325" t="s">
         <v>12</v>
@@ -12345,16 +12345,16 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
+        <v>998</v>
+      </c>
+      <c r="C326" t="s">
         <v>999</v>
-      </c>
-      <c r="C326" t="s">
-        <v>1000</v>
       </c>
       <c r="D326">
         <v>98411692</v>
       </c>
       <c r="E326" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F326" t="s">
         <v>22</v>
@@ -12371,16 +12371,16 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C327" t="s">
         <v>1002</v>
-      </c>
-      <c r="C327" t="s">
-        <v>1003</v>
       </c>
       <c r="D327">
         <v>90511338</v>
       </c>
       <c r="E327" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F327" t="s">
         <v>11</v>
@@ -12397,16 +12397,16 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C328" t="s">
         <v>1005</v>
-      </c>
-      <c r="C328" t="s">
-        <v>1006</v>
       </c>
       <c r="D328">
         <v>97892401</v>
       </c>
       <c r="E328" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F328" t="s">
         <v>43</v>
@@ -12423,16 +12423,16 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C329" t="s">
         <v>1008</v>
-      </c>
-      <c r="C329" t="s">
-        <v>1009</v>
       </c>
       <c r="D329">
         <v>19478641</v>
       </c>
       <c r="E329" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F329" t="s">
         <v>11</v>
@@ -12449,16 +12449,16 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C330" t="s">
         <v>1011</v>
-      </c>
-      <c r="C330" t="s">
-        <v>1012</v>
       </c>
       <c r="D330">
         <v>7579598</v>
       </c>
       <c r="E330" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F330" t="s">
         <v>22</v>
@@ -12475,16 +12475,16 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C331" t="s">
         <v>1014</v>
-      </c>
-      <c r="C331" t="s">
-        <v>1015</v>
       </c>
       <c r="D331">
         <v>22820240</v>
       </c>
       <c r="E331" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F331" t="s">
         <v>16</v>
